--- a/excel/breakout/manual_alert.xlsx
+++ b/excel/breakout/manual_alert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,6 +610,216 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DONE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1347</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-11 06:44:41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>New data added</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1375</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-11 06:44:41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>New data added</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IRCON.NS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>267</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-06-11 06:44:41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>New data added</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IRFC.NS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>183</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-06-11 06:44:41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>New data added</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RAILTEL.NS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>420</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-11 06:44:41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>New data added</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RAILTEL.NS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>415</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-11 06:44:41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>New data added</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/breakout/manual_alert.xlsx
+++ b/excel/breakout/manual_alert.xlsx
@@ -683,7 +683,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ADD</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/excel/breakout/manual_alert.xlsx
+++ b/excel/breakout/manual_alert.xlsx
@@ -788,7 +788,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADD</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">

--- a/excel/breakout/manual_alert.xlsx
+++ b/excel/breakout/manual_alert.xlsx
@@ -753,7 +753,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADD</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">

--- a/excel/breakout/manual_alert.xlsx
+++ b/excel/breakout/manual_alert.xlsx
@@ -648,7 +648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ADD</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">

--- a/excel/breakout/manual_alert.xlsx
+++ b/excel/breakout/manual_alert.xlsx
@@ -578,7 +578,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ADD</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">

--- a/excel/breakout/manual_alert.xlsx
+++ b/excel/breakout/manual_alert.xlsx
@@ -718,7 +718,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ADD</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">

--- a/excel/breakout/manual_alert.xlsx
+++ b/excel/breakout/manual_alert.xlsx
@@ -543,7 +543,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ADD</t>
+          <t>DONE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/excel/breakout/manual_alert.xlsx
+++ b/excel/breakout/manual_alert.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
